--- a/dictionaries/core/2_5/2_5_non_rep.xlsx
+++ b/dictionaries/core/2_5/2_5_non_rep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmj541/Library/Mobile Documents/com~apple~CloudDocs/work/repos/ds-dictionaries/dictionaries/core/2_5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmj541/Library/Mobile Documents/com~apple~CloudDocs/work/repos/ds-dictionaries-fork/dictionaries/core/2_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C30A88-AE97-F744-94A1-BB964973EEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C25882-CFA2-A54F-BB73-0BCCD62DFAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -2622,10 +2622,10 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Partipant a member of BiB1000 sub-cohort</t>
-  </si>
-  <si>
     <t>bib_1000</t>
+  </si>
+  <si>
+    <t>Participant a member of BiB1000 sub-cohort</t>
   </si>
 </sst>
 </file>
@@ -3039,8 +3039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D330"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A330" sqref="A330"/>
+    <sheetView tabSelected="1" topLeftCell="D322" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D330" sqref="D330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7654,7 +7654,7 @@
     </row>
     <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>5</v>
@@ -7663,7 +7663,7 @@
         <v>6</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
   </sheetData>
@@ -7678,7 +7678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D339"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A340" sqref="A340"/>
     </sheetView>
@@ -12412,7 +12412,7 @@
     </row>
     <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B338" s="4">
         <v>0</v>
@@ -12426,7 +12426,7 @@
     </row>
     <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B339" s="4">
         <v>1</v>
